--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
   <si>
     <t>Univ</t>
   </si>
@@ -210,18 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intro:
-https://www.cs.ubc.ca/students/grad/prospective/applying/documents
-신청 시슷템:
-http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중국학생에 대해 까다롭다. 
-Application stage 에서도 하드코피자료 바친다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多伦多大学 University of Toronto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,20 +429,6 @@
   </si>
   <si>
     <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.sgs.utoronto.ca/
-201208187329  Nimama2011(아직 미오픈)
-https://gradapps.cs.toronto.edu/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McGill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queens university</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,125 +470,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2012-12-15
-grad-info@cs.ubc.ca
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-January 15 for the Part-Time, Industry-Oriented MSc only
-mid-Septembe 에 신청 열림
-웹 reference 추천.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-메일로  word 문서 보내는 방법으로 추천.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Msc/PhD admission cycle for Fall/Winter 2013-2014 will open in october 2012.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALL</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-전자추천 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">비상용 . </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FALL
-비상용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">10/15/2012
 sent a mail to the gradcs.
 </t>
@@ -630,10 +485,6 @@
       </rPr>
       <t>SPRING</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청과정에서 사인된 reference letter요구함. 신청하기 싫다.(이건 어디꺼?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -753,12 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CS:
-http://compsci.rice.edu/academics.cfm?doc_id=4788
-gradappmail:gradapp@cs.rice.edu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Duke University</t>
     </r>
@@ -797,30 +642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UBritishC
-메일로 봄학기 신청이 지금도 가능한지, deadline물어보기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Toronto 
-(msac 는 하면 안돼.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Honors and Awards received 안썻으.
-Supplemental Info 거의 PS급이다. 안썻으.
-요구하는 문서가 생각보다 많은것 같다. 잘 체크하기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(+82)-010-8301-0173</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -850,16 +671,6 @@
   </si>
   <si>
     <t>kimcherwoo@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-statement of interest 를 언제 어디에 업로드? 현재 싸이트에 업로드 못해. 메일 보냈음.
- Students from China are required to submit a final transcript, graduation diploma and degree certificate.
-신청과정에 paper material안보낸다
-합격되면 공식문서보낸다.
-Admission stage에는 문제가 까다롭다.(final Chinese documents must include transcripts, graduation diplomas and degree certificates in Chinese, all with official English translations and sent directly from the home institution)
-programming lan G  는 별로인거 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1011,6 +822,229 @@
 http://www.cs.duke.edu/education/graduate/prospective/resources
 신청:
 https://app.applyyourself.com/?id=DukeGrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+statement of interest 를 언제 어디에 업로드? 현재 싸이트에 업로드 못해. 메일 보냈음.
+ Students from China are required to submit a final transcript, graduation diploma and degree certificate.
+신청과정에 paper material안보낸다
+합격되면 공식문서보낸다.
+Admission stage에는 문제가 까다롭다.(final Chinese documents must include transcripts, graduation diplomas and degree certificates in Chinese, all with official English translations and sent directly from the home institution)
+programming lan G  는 별로인거 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honors and Awards received 안썻으.
+Supplemental Info 거의 PS급이다. 안썻으.
+요구하는 문서가 생각보다 많은것 같다. 잘 체크하기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS:
+http://compsci.rice.edu/academics.cfm?doc_id=4788
+gradappmail:gradapp@cs.rice.edu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queens university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>西安大略大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The University of Western Ontario</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McGill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:
+https://www.cs.ubc.ca/students/grad/prospective/applying/documents
+신청 시슷템:
+http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국학생에 대해 까다롭다. 
+Application stage 에서도 하드코피자료 바친다.
+GRE not required.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Toronto 
+(msac 는 하면 안돼.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.sgs.utoronto.ca/
+201208187329  Nimama2011(아직 미오픈)
+intro : http://web.cs.toronto.edu/program/prospective_gradwhy/mscac.htm
+https://gradapps.cs.toronto.edu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
+신청시스템: 주소 바뀜 , 다시 채크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2013-01-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+메일로  word 문서 보내는 방법으로 추천.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2012-12-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+grad-info@cs.ubc.ca
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mid-Septembe 에 신청 열림
+웹 reference 추천.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2013-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2013-03-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+비상용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2013-02-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+전자추천 
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:http://www.csd.uwo.ca/new_grad/app_procedures.shtml
+chinese prof:http://www.csd.uwo.ca/~cling/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBritishC
+deadline물어보기.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,7 +1223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1211,12 +1245,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1254,6 +1282,27 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1625,18 +1674,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.375" style="22" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="44.625" style="2" bestFit="1" customWidth="1"/>
@@ -1653,7 +1702,7 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1672,251 +1721,233 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>62</v>
+      <c r="A2" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" s="16" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7">
+        <v>41122</v>
+      </c>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="B72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="F16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="7">
-        <v>41122</v>
-      </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>11</v>
+      <c r="H72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" display="https://apply.sgs.utoronto.ca/_x000a_201208187329  Nimama2011(아직 미오픈)_x000a_"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1968,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2022,8 +2053,8 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>48</v>
+      <c r="C4" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -2048,8 +2079,8 @@
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>49</v>
+      <c r="C5" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -2074,7 +2105,7 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2101,7 +2132,7 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2128,11 +2159,11 @@
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>50</v>
+      <c r="C8" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -2155,7 +2186,7 @@
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2182,11 +2213,11 @@
       <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>51</v>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -2209,7 +2240,7 @@
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>41194</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2233,7 +2264,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>41194</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2260,7 +2291,7 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>41194</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2328,64 +2359,64 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>125</v>
+      <c r="B2" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>116</v>
+        <v>87</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>96</v>
+      <c r="B7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="F7">
         <v>100081</v>
@@ -2393,73 +2424,73 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>84</v>
+        <v>100</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="19" t="s">
-        <v>109</v>
+      <c r="D11" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
-        <v>97</v>
+      <c r="B14" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -488,11 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gmail address
-Nimama2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gmail
 Nimama2011</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,10 +634,6 @@
       </rPr>
       <t>(Pratt)  spring ms only</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(+82)-010-8301-0173</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1043,7 +1034,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UBritishC
+    <t>gmail address
+Nimama2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+82)-010-8301-0173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBC
 deadline물어보기.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1677,8 +1677,8 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1721,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="280.5" x14ac:dyDescent="0.3">
@@ -1729,22 +1729,22 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1756,27 +1756,27 @@
         <v>130</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
@@ -1802,13 +1802,13 @@
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1821,27 +1821,27 @@
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>53</v>
@@ -1876,7 +1876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1900,48 +1900,48 @@
     </row>
     <row r="71" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2347,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2359,18 +2359,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2378,45 +2378,45 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>100081</v>
@@ -2424,73 +2424,73 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
   <si>
     <t>Univ</t>
   </si>
@@ -417,10 +417,6 @@
       </rPr>
       <t xml:space="preserve"> The University of Western Ontario</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">괜찮음. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -712,9 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.nexstreaming.com/</t>
-  </si>
-  <si>
     <t>2nd Flr,Gwangseong Bldg,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -743,10 +736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Il-Taek Lim </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>135-080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,10 +745,6 @@
   </si>
   <si>
     <t>Nexstreaming Corporation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nexstreaming Corporation, 5th Flr,Gwangseong Bldg,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -879,6 +864,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>중국학생에 대해 까다롭다. 
+Application stage 에서도 하드코피자료 바친다.
+GRE not required.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Toronto 
+(msac 는 하면 안돼.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.sgs.utoronto.ca/
+201208187329  Nimama2011(아직 미오픈)
+intro : http://web.cs.toronto.edu/program/prospective_gradwhy/mscac.htm
+https://gradapps.cs.toronto.edu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
+신청시스템: 주소 바뀜 , 다시 채크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2013-01-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+메일로  word 문서 보내는 방법으로 추천.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2013-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2013-03-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+비상용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2013-02-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+전자추천 
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:http://www.csd.uwo.ca/new_grad/app_procedures.shtml
+chinese prof:http://www.csd.uwo.ca/~cling/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+82)-010-8301-0173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBC
+deadline물어보기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>intro:
 https://www.cs.ubc.ca/students/grad/prospective/applying/documents
 신청 시슷템:
@@ -886,52 +993,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중국학생에 대해 까다롭다. 
-Application stage 에서도 하드코피자료 바친다.
-GRE not required.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Toronto 
-(msac 는 하면 안돼.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.sgs.utoronto.ca/
-201208187329  Nimama2011(아직 미오픈)
-intro : http://web.cs.toronto.edu/program/prospective_gradwhy/mscac.htm
-https://gradapps.cs.toronto.edu/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
-신청시스템: 주소 바뀜 , 다시 채크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2013-01-01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-메일로  word 문서 보내는 방법으로 추천.</t>
-    </r>
+    <t xml:space="preserve">Il-Taek Lim </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nexstreaming Corporation, 5th Flr,Gwangseong Bldg,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nexstreaming.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeoksamdong Gangnam-gu, 831-47 ,Seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -974,77 +1052,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-2013-2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2013-03-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-비상용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2013-02-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-전자추천 
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:http://www.csd.uwo.ca/new_grad/app_procedures.shtml
-chinese prof:http://www.csd.uwo.ca/~cling/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gmail address
-Nimama2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(+82)-010-8301-0173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBC
-deadline물어보기.</t>
+Nimama2012
+ubc no:81207136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,79 +1316,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1388,14 +1330,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1676,9 +1618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1721,30 +1663,30 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1753,30 +1695,30 @@
     </row>
     <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -1784,31 +1726,31 @@
     </row>
     <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="C7" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1821,30 +1763,30 @@
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1867,13 +1809,13 @@
     </row>
     <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -1881,16 +1823,16 @@
         <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
@@ -1900,48 +1842,48 @@
     </row>
     <row r="71" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2344,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2357,150 +2299,177 @@
     <col min="6" max="6" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>100081</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="17" t="s">
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F7">
-        <v>100081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>68</v>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="B32" r:id="rId1"/>
+    <hyperlink ref="B40" r:id="rId2"/>
+    <hyperlink ref="B47" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="B44" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
   <si>
     <t>Univ</t>
   </si>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡尔加里大学 University of Calgary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约克大学 York University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>麦吉尔大学 McGill University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no spring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多伦多大学 University of Toronto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>不列</t>
     </r>
@@ -387,35 +375,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Queen University</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>西安大略大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The University of Western Ontario</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,12 +776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CS:
-http://compsci.rice.edu/academics.cfm?doc_id=4788
-gradappmail:gradapp@cs.rice.edu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Queens university</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1055,6 +1008,154 @@
     <t>gmail address
 Nimama2012
 ubc no:81207136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>麦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吉尔大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> McGill University</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> University of Toronto</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔加里大学 University of Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>西安大略大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The University of Western Ontario</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS:
+http://compsci.rice.edu/academics.cfm?doc_id=4788
+gradappmail:gradapp@cs.rice.edu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1313,6 +1414,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1618,9 +1722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1663,30 +1767,30 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1695,30 +1799,30 @@
     </row>
     <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -1726,31 +1830,31 @@
     </row>
     <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="C7" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1763,34 +1867,38 @@
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="13" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -1798,7 +1906,18 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -1809,30 +1928,30 @@
     </row>
     <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
@@ -1842,48 +1961,48 @@
     </row>
     <row r="71" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2017,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1935,13 +2054,13 @@
     </row>
     <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
+      <c r="C2" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1964,13 +2083,13 @@
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
+      <c r="C3" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1996,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -2022,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -2105,7 +2224,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -2126,13 +2245,13 @@
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -2153,13 +2272,13 @@
     </row>
     <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -2180,13 +2299,13 @@
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="8">
         <v>41194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -2210,7 +2329,7 @@
         <v>41194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -2231,13 +2350,13 @@
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <v>41194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
@@ -2275,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2301,80 +2420,80 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -2384,82 +2503,82 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
   <si>
     <t>Univ</t>
   </si>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>7~9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦克马斯特大学 McMaster University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -835,37 +831,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
-신청시스템: 주소 바뀜 , 다시 채크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2013-01-01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-메일로  word 문서 보내는 방법으로 추천.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 2013-2-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1156,6 +1121,109 @@
   </si>
   <si>
     <t>OSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">apply:https://www.yale.edu/graduateschool/admissions/apply_online.html
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2013-01-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
+신청시스템: 주소 바뀜 , 다시 채크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2013-01-02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pin: 25L898Q3799</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC santa cruz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-01-03  AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master 도 가능해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university of alberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 15th,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克马斯特大学 McMaster University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1166,7 +1234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,12 +1303,6 @@
       <name val="새굴림"/>
       <family val="1"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1312,6 +1374,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1334,7 +1412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1354,69 +1432,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1720,18 +1804,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="56.375" style="21" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="44.625" style="2" bestFit="1" customWidth="1"/>
@@ -1748,7 +1832,7 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1767,242 +1851,277 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="15" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="11" spans="1:9" s="15" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="15" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" s="15" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="7">
+        <v>41122</v>
+      </c>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="7">
-        <v>41122</v>
-      </c>
-      <c r="C23" s="27"/>
-    </row>
-    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="C74" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="23" t="s">
+      <c r="C75" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2136,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2054,13 +2173,13 @@
     </row>
     <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2083,13 +2202,13 @@
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>128</v>
+      <c r="C3" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -2115,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -2141,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -2164,13 +2283,13 @@
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -2191,13 +2310,13 @@
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -2218,13 +2337,13 @@
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -2245,13 +2364,13 @@
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -2272,13 +2391,13 @@
     </row>
     <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -2299,13 +2418,13 @@
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8">
         <v>41194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -2329,7 +2448,7 @@
         <v>41194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -2350,13 +2469,13 @@
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8">
         <v>41194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
@@ -2394,7 +2513,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2420,80 +2539,80 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
-        <v>97</v>
+      <c r="B2" s="19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>77</v>
+      <c r="B7" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -2502,83 +2621,83 @@
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
-        <v>67</v>
+      <c r="B32" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="20" t="s">
-        <v>89</v>
+      <c r="B38" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="17" t="s">
-        <v>72</v>
+      <c r="B40" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="17" t="s">
-        <v>124</v>
+      <c r="B44" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="17" t="s">
-        <v>73</v>
+      <c r="B47" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="145">
   <si>
     <t>Univ</t>
   </si>
@@ -26,10 +26,6 @@
   </si>
   <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>spring deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Financial aid</t>
@@ -809,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RICE university</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중국학생에 대해 까다롭다. 
 Application stage 에서도 하드코피자료 바친다.
 GRE not required.</t>
@@ -1124,22 +1116,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">apply:https://www.yale.edu/graduateschool/admissions/apply_online.html
+    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
+신청시스템: 주소 바뀜 , 다시 채크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC santa cruz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-01-03  AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master 도 가능해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university of alberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 15th,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
+    <t>麦克马斯特大学 McMaster University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1148,82 +1182,15 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
-신청시스템: 주소 바뀜 , 다시 채크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2013-01-02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-pin: 25L898Q3799</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC santa cruz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013-01-03  AM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>master 도 가능해 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>university of alberta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>January 15th,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦克马斯特大学 McMaster University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,7 +1201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1390,6 +1357,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1412,7 +1400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1453,9 +1441,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1501,6 +1486,13 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1808,320 +1800,320 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="20" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="28.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="22" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>9</v>
+        <v>142</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>135</v>
-      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>117</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="22" t="s">
         <v>108</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="18" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="31">
+        <v>41306</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="4">
+        <v>40923</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="30">
+        <v>40923</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="7">
         <v>41122</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="H74" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>99</v>
+        <v>54</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2147,42 +2139,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>60.3</v>
@@ -2202,16 +2194,16 @@
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>125</v>
+      <c r="C3" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>46.1</v>
@@ -2234,10 +2226,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>50.2</v>
@@ -2252,7 +2244,7 @@
         <v>44.2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -2260,10 +2252,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>45</v>
@@ -2283,16 +2275,16 @@
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>19.100000000000001</v>
@@ -2305,21 +2297,21 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>28.8</v>
@@ -2332,21 +2324,21 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>18</v>
@@ -2359,21 +2351,21 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>20.9</v>
@@ -2386,21 +2378,21 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <v>14.6</v>
@@ -2413,21 +2405,21 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="8">
         <v>41194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>24.9</v>
@@ -2440,7 +2432,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -2448,10 +2440,10 @@
         <v>41194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>21.7</v>
@@ -2464,21 +2456,21 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8">
         <v>41194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <v>13.5</v>
@@ -2491,7 +2483,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2539,80 +2531,80 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>96</v>
+      <c r="B2" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>76</v>
+      <c r="B7" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -2621,83 +2613,83 @@
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
-        <v>66</v>
+      <c r="B32" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
-        <v>88</v>
+      <c r="B38" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="16" t="s">
-        <v>71</v>
+      <c r="B40" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="16" t="s">
-        <v>121</v>
+      <c r="B44" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="16" t="s">
-        <v>72</v>
+      <c r="B47" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
   <si>
     <t>Univ</t>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>加拿大：http://liuxue.xdf.cn/wzy/zb/zx/270536.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quite good. But not many master's opsition avail for Spring Semester, though places are plenty for PhD.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,11 +392,6 @@
   </si>
   <si>
     <t>MSE는 TA해도 학비면제가안대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UWaterloo
-메일써서 statement of interest올리는곳 물어봄.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -762,12 +753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Honors and Awards received 안썻으.
-Supplemental Info 거의 PS급이다. 안썻으.
-요구하는 문서가 생각보다 많은것 같다. 잘 체크하기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Queens university</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,11 +793,6 @@
     <t>중국학생에 대해 까다롭다. 
 Application stage 에서도 하드코피자료 바친다.
 GRE not required.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Toronto 
-(msac 는 하면 안돼.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -878,17 +858,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intro:http://www.csd.uwo.ca/new_grad/app_procedures.shtml
-chinese prof:http://www.csd.uwo.ca/~cling/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(+82)-010-8301-0173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBC
-deadline물어보기.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -923,6 +893,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gmail address
+Nimama2012
+ubc no:81207136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>麦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吉尔大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> McGill University</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> University of Toronto</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔加里大学 University of Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>西安大略大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The University of Western Ontario</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC santa cruz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-01-03  AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master 도 가능해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university of alberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 15th,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克马斯特大学 McMaster University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2013-01-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -956,141 +1147,33 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-mid-Septembe 에 신청 열림
-웹 reference 추천.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmail address
-Nimama2012
-ubc no:81207136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>麦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吉尔大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> McGill University</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>多</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> University of Toronto</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔加里大学 University of Calgary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>西安大略大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The University of Western Ontario</t>
-    </r>
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
+신청시스템: 주소 바뀜 , 다시 채크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UBC
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Toronto 
+(msac 는 하면 안돼.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honors and Awards received 안썻으.
+Supplemental Info 거의 PS급이다. 안썻으.
+요구하는 문서가 생각보다 많은것 같다. 잘 체크하기.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1100,97 +1183,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
-신청시스템: 주소 바뀜 , 다시 채크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC santa cruz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013-01-03  AM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>master 도 가능해 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>university of alberta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>January 15th,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦克马斯特大学 McMaster University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RICE university</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limited</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2013-01-01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>intro:http://www.csd.uwo.ca/new_grad/app_procedures.shtml
+chinese prof:http://www.csd.uwo.ca/~cling/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1378,6 +1372,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1400,7 +1402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1481,9 +1483,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1492,6 +1491,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1798,14 +1803,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.125" style="20" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
@@ -1822,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>8</v>
@@ -1843,30 +1848,30 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1876,79 +1881,76 @@
     </row>
     <row r="4" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="C5" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>144</v>
+        <v>100</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="14" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1958,74 +1960,74 @@
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="31">
+        <v>120</v>
+      </c>
+      <c r="B14" s="30">
         <v>41306</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>131</v>
+      <c r="A16" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="B16" s="4">
         <v>40923</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="30">
+      <c r="A19" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="29">
         <v>40923</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2039,30 +2041,30 @@
     </row>
     <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>47</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
@@ -2072,48 +2074,48 @@
     </row>
     <row r="74" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="H74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>98</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2139,42 +2141,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>60.3</v>
@@ -2194,16 +2196,16 @@
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
         <v>46.1</v>
@@ -2226,10 +2228,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>50.2</v>
@@ -2244,7 +2246,7 @@
         <v>44.2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -2252,10 +2254,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>45</v>
@@ -2275,16 +2277,16 @@
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
         <v>19.100000000000001</v>
@@ -2297,21 +2299,21 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>28.8</v>
@@ -2324,21 +2326,21 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>18</v>
@@ -2351,21 +2353,21 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>20.9</v>
@@ -2378,21 +2380,21 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>14.6</v>
@@ -2405,21 +2407,21 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <v>41194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>24.9</v>
@@ -2432,7 +2434,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -2440,10 +2442,10 @@
         <v>41194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>21.7</v>
@@ -2456,21 +2458,21 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8">
         <v>41194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>13.5</v>
@@ -2483,7 +2485,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2507,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2531,80 +2533,80 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -2614,82 +2616,82 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
   <si>
     <t>Univ</t>
   </si>
@@ -375,10 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thesis  는 거의 받는거 같아;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Spring :September 14, 2012
 M.S.E.(for Spring 2012): </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,14 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5 South Zhongguancun Street,  Haidian District,  Beijing  100081,  P. R. China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>School of Software,  Beijing Institute of Technology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>86-15801368798</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,10 +572,6 @@
   </si>
   <si>
     <t>iltaek.lim@nexstreaming.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(+82)02-2194-5369</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -621,10 +605,6 @@
 http://www.cs.uwaterloo.ca/research/directory-2008/
 study in canada:
 http://www.cic.gc.ca/english/study/index.asp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post code:135-080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -646,14 +626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(+82)02-2194-5342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2nd Flr,Gwangseong Bldg,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">RTP is  next door.
 </t>
@@ -674,10 +646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>135-080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,15 +662,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jianwei Sun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5 South Zhongguancun Street, Haidian District,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86-10-68918268</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -716,10 +676,6 @@
   </si>
   <si>
     <t>Ronald Parr, Carlo Tomasi, Vincent Conit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nexstreaming Corporation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -753,23 +709,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Queens university</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>西安大略大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>McGill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국학생에 대해 까다롭다. 
+Application stage 에서도 하드코피자료 바친다.
+GRE not required.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.sgs.utoronto.ca/
+201208187329  Nimama2011(아직 미오픈)
+intro : http://web.cs.toronto.edu/program/prospective_gradwhy/mscac.htm
+https://gradapps.cs.toronto.edu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2013-02-15</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>学</t>
+      <t xml:space="preserve">
+전자추천 
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+82)-010-8301-0173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:
+https://www.cs.ubc.ca/students/grad/prospective/applying/documents
+신청 시슷템:
+http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Il-Taek Lim </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nexstreaming.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeoksamdong Gangnam-gu, 831-47 ,Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail address
+Nimama2012
+ubc no:81207136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>麦</t>
     </r>
     <r>
       <rPr>
@@ -781,33 +794,19 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> The University of Western Ontario</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McGill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중국학생에 대해 까다롭다. 
-Application stage 에서도 하드코피자료 바친다.
-GRE not required.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.sgs.utoronto.ca/
-201208187329  Nimama2011(아직 미오픈)
-intro : http://web.cs.toronto.edu/program/prospective_gradwhy/mscac.htm
-https://gradapps.cs.toronto.edu/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2013-2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>吉尔大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -818,89 +817,24 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2013-03-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-비상용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2013-02-15</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> McGill University</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-전자추천 
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(+82)-010-8301-0173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:
-https://www.cs.ubc.ca/students/grad/prospective/applying/documents
-신청 시슷템:
-http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Il-Taek Lim </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nexstreaming Corporation, 5th Flr,Gwangseong Bldg,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nexstreaming.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeoksamdong Gangnam-gu, 831-47 ,Seoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmail address
-Nimama2012
-ubc no:81207136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>麦</t>
+      <t>伦</t>
     </r>
     <r>
       <rPr>
@@ -912,7 +846,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>吉尔大</t>
+      <t>多大</t>
     </r>
     <r>
       <rPr>
@@ -935,13 +869,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> McGill University</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>多</t>
+      <t xml:space="preserve"> University of Toronto</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔加里大学 University of Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>西安大略大</t>
     </r>
     <r>
       <rPr>
@@ -952,7 +890,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>伦</t>
+      <t>学</t>
     </r>
     <r>
       <rPr>
@@ -964,7 +902,85 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>多大</t>
+      <t xml:space="preserve"> The University of Western Ontario</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master 도 가능해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克马斯特大学 McMaster University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Toronto 
+(msac 는 하면 안돼.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honors and Awards received 안썻으.
+Supplemental Info 거의 PS급이다. 안썻으.
+요구하는 문서가 생각보다 많은것 같다. 잘 체크하기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS:
+http://compsci.rice.edu/academics.cfm?doc_id=4788
+gradappmail:gradapp@cs.rice.edu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:http://www.csd.uwo.ca/new_grad/app_procedures.shtml
+chinese prof:http://www.csd.uwo.ca/~cling/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC santa cruz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UBC
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>西安大略大</t>
     </r>
     <r>
       <rPr>
@@ -987,204 +1003,247 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> University of Toronto</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔加里大学 University of Calgary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>西安大略大</t>
-    </r>
+      <t xml:space="preserve"> The University of Western Ontario</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSTON University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cse.ohio-state.edu/~cstewart/index.html</t>
+  </si>
+  <si>
+    <t>done.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin:25L898Q3799
+passwd:Nimama2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university of alberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yale?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="6"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+      <t>2012-12-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> The University of Western Ontario</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC santa cruz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013-01-03  AM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>master 도 가능해 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>university of alberta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>January 15th,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦克马斯特大学 McMaster University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RICE university</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limited</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2013-01-01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2012-12-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
 grad-info@cs.ubc.ca
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu, Nimama2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd Flr,Gwangseong Bldg,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post code:135-080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>Verbal Reasoning*</t>
+  </si>
+  <si>
+    <t>Quantitative Reasoning*</t>
+  </si>
+  <si>
+    <t>Analytical Writing</t>
+  </si>
+  <si>
+    <t>Prior Format</t>
+  </si>
+  <si>
+    <t>Current Format</t>
+  </si>
+  <si>
+    <t>Scaled Score</t>
+  </si>
+  <si>
+    <t>Estimated </t>
+  </si>
+  <si>
+    <t>Current Score</t>
+  </si>
+  <si>
+    <t>% Below</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TELXML</t>
+  </si>
+  <si>
+    <t>Sun Jul 15 11:04:00 EDT 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">접촉한 선생의 이름 쓰란다. 흑인 이름써. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jianwei Sun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zheyujin,Nimama2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
+신청페이지 시간 제한 있으. 
+https://www.isis.ufl.edu/cgi-bin/eaglec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nexstreaming Corporation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 South Zhongguancun Street,  Haidian District,  Beijing  100081,  P. R. China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School of Software,  Beijing Institute of Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86-10-68918268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nexstreaming Corporation, 5th Flr,Gwangseong Bldg,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+82)02-2194-5342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+82)02-2194-5369</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement of interest,안썻으.
+다시 체크해보기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimchewroo@gmail.com
+caonima2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청이 너무 시끄럽다.. 하지말가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-01-03  AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zheyu2012,
+Nimam2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
-신청시스템: 주소 바뀜 , 다시 채크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterloo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UBC
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Toronto 
-(msac 는 하면 안돼.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Honors and Awards received 안썻으.
-Supplemental Info 거의 PS급이다. 안썻으.
-요구하는 문서가 생각보다 많은것 같다. 잘 체크하기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS:
-http://compsci.rice.edu/academics.cfm?doc_id=4788
-gradappmail:gradapp@cs.rice.edu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:http://www.csd.uwo.ca/new_grad/app_procedures.shtml
-chinese prof:http://www.csd.uwo.ca/~cling/</t>
+https://horizon.mcgill.ca/pban1/hzskalog.P_DispAppLogin?p_langue=01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,7 +1254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1365,7 +1424,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1373,23 +1476,89 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="6"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBE5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E0EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1397,12 +1566,288 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1456,9 +1901,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1479,9 +1921,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1493,19 +1932,210 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1515,14 +2145,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1803,16 +2433,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="19" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
@@ -1827,9 +2457,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1848,206 +2478,256 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>138</v>
+      <c r="A2" s="33" t="s">
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" s="38" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="71">
+        <v>41289</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="27"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="14" customFormat="1" ht="120.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="30">
-        <v>41306</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="4">
-        <v>40923</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="29">
-        <v>40923</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="7">
         <v>41122</v>
       </c>
-      <c r="C26" s="24"/>
-    </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C26" s="23"/>
+    </row>
+    <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="4">
+        <v>40923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
@@ -2055,16 +2735,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
@@ -2074,54 +2754,59 @@
     </row>
     <row r="74" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="H74" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>96</v>
+        <v>51</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I10" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2173,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -2201,8 +2886,8 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>116</v>
+      <c r="C3" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -2283,7 +2968,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -2364,7 +3049,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -2391,7 +3076,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -2518,95 +3203,267 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.75" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="33.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="63">
+        <v>28</v>
+      </c>
+      <c r="D11" s="63">
+        <v>26</v>
+      </c>
+      <c r="E11" s="63">
+        <v>24</v>
+      </c>
+      <c r="F11" s="63">
+        <v>27</v>
+      </c>
+      <c r="G11" s="63">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44"/>
+      <c r="B13" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="55"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="61"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="45">
+        <v>39897</v>
+      </c>
+      <c r="B16" s="46">
+        <v>400</v>
+      </c>
+      <c r="C16" s="46">
+        <v>146</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47">
+        <v>28</v>
+      </c>
+      <c r="F16" s="46">
+        <v>800</v>
+      </c>
+      <c r="G16" s="46">
+        <v>166</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47">
+        <v>94</v>
+      </c>
+      <c r="J16" s="46">
+        <v>3</v>
+      </c>
+      <c r="K16" s="47">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -2616,85 +3473,102 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B32" r:id="rId1"/>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="178">
   <si>
     <t>Univ</t>
   </si>
@@ -25,9 +25,6 @@
     <t>ID/pin</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>Financial aid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -36,8 +33,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>$17,228</t>
+    <t>required docs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大：http://liuxue.xdf.cn/wzy/zb/zx/270536.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家排名</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>学术声誉</t>
+  </si>
+  <si>
+    <t>每位教师论文被引用次数</t>
+  </si>
+  <si>
+    <t>雇主评价</t>
+  </si>
+  <si>
+    <t>综合得分</t>
+  </si>
+  <si>
+    <t>世界排名</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>26=</t>
+  </si>
+  <si>
+    <t>51-100</t>
+  </si>
+  <si>
+    <t>101-150</t>
+  </si>
+  <si>
+    <t>151-200</t>
+  </si>
+  <si>
+    <t>5~6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nospring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔伯塔大学 University of Alberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Students are normally only admitted starting in the Fall term, but occasional exceptions are made.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约克大学 York University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>September 1/ February 1(시간 안맞아)
+January 1/ May 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not for masters. Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not for masters.spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙佛蕾泽大学 Simon Fraser University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fall (September) February 1
+Spring (January) August 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特利尔大学 Université de Montréal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johns Hopkins UniversityJHU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不列</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>颠</t>
     </r>
     <r>
       <rPr>
@@ -49,149 +182,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 학비.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-good, nearlly all MS get full aid. 자동으로 고려대상이 됨.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required docs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加拿大：http://liuxue.xdf.cn/wzy/zb/zx/270536.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家排名</t>
-  </si>
-  <si>
-    <t>大学</t>
-  </si>
-  <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>学术声誉</t>
-  </si>
-  <si>
-    <t>每位教师论文被引用次数</t>
-  </si>
-  <si>
-    <t>雇主评价</t>
-  </si>
-  <si>
-    <t>综合得分</t>
-  </si>
-  <si>
-    <t>世界排名</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>26=</t>
-  </si>
-  <si>
-    <t>51-100</t>
-  </si>
-  <si>
-    <t>101-150</t>
-  </si>
-  <si>
-    <t>151-200</t>
-  </si>
-  <si>
-    <t>5~6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7~9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nospring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿尔伯塔大学 University of Alberta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Students are normally only admitted starting in the Fall term, but occasional exceptions are made.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约克大学 York University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>September 1/ February 1(시간 안맞아)
-January 1/ May 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not for masters. Spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not for masters.spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙佛蕾泽大学 Simon Fraser University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fall (September) February 1
-Spring (January) August 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙特利尔大学 Université de Montréal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Johns Hopkins UniversityJHU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不列</t>
+      <t>哥</t>
     </r>
     <r>
       <rPr>
@@ -202,7 +193,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>颠</t>
+      <t>伦</t>
     </r>
     <r>
       <rPr>
@@ -214,7 +205,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>哥</t>
+      <t>比</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +216,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>伦</t>
+      <t>亚</t>
     </r>
     <r>
       <rPr>
@@ -237,7 +228,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>比</t>
+      <t>大</t>
     </r>
     <r>
       <rPr>
@@ -248,7 +239,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>亚</t>
+      <t>学</t>
     </r>
     <r>
       <rPr>
@@ -260,7 +251,50 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>大</t>
+      <t xml:space="preserve"> University of British Columbia</t>
+    </r>
+  </si>
+  <si>
+    <t>두개의  noline system 에서 동시에 신청 해야된다. !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring :September 14, 2012
+M.S.E.(for Spring 2012): </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.grad.jhu.edu/admissions/index.php
+deadline:
+http://grad.jhu.edu/academics/programs/
+applicattion: http://www.grad.jhu.edu/admissions/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE는 TA해도 학비면제가안대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stonybrook university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>october 1st.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석사는 장학금없어.donot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10/15/2012
+sent a mail to the gradcs.
+</t>
     </r>
     <r>
       <rPr>
@@ -271,152 +305,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> University of British Columbia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>滑</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>铁卢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> University of Waterloo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>皇后大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Queen University</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두개의  noline system 에서 동시에 신청 해야된다. !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring :September 14, 2012
-M.S.E.(for Spring 2012): </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.grad.jhu.edu/admissions/index.php
-deadline:
-http://grad.jhu.edu/academics/programs/
-applicattion: http://www.grad.jhu.edu/admissions/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSE는 TA해도 학비면제가안대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stonybrook university</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>october 1st.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석사는 장학금없어.donot.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10/15/2012
-sent a mail to the gradcs.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>SPRING</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,36 +312,6 @@
   <si>
     <t>gmail
 Nimama2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spring is October 15
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SPRING</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-웹 reference 추천.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -726,63 +584,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2013-02-15</t>
-    </r>
-    <r>
-      <rPr>
+    <t>(+82)-010-8301-0173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Il-Taek Lim </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nexstreaming.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeoksamdong Gangnam-gu, 831-47 ,Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail address
+Nimama2012
+ubc no:81207136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-전자추천 
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(+82)-010-8301-0173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:
-https://www.cs.ubc.ca/students/grad/prospective/applying/documents
-신청 시슷템:
-http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Il-Taek Lim </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nexstreaming.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeoksamdong Gangnam-gu, 831-47 ,Seoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmail address
-Nimama2012
-ubc no:81207136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>麦</t>
+      <t>伦</t>
     </r>
     <r>
       <rPr>
@@ -794,7 +638,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>吉尔大</t>
+      <t>多大</t>
     </r>
     <r>
       <rPr>
@@ -817,13 +661,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> McGill University</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>多</t>
+      <t xml:space="preserve"> University of Toronto</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔加里大学 University of Calgary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>西安大略大</t>
     </r>
     <r>
       <rPr>
@@ -834,7 +682,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>伦</t>
+      <t>学</t>
     </r>
     <r>
       <rPr>
@@ -846,62 +694,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>多大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> University of Toronto</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔加里大学 University of Calgary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>西安大略大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> The University of Western Ontario</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,11 +708,6 @@
   </si>
   <si>
     <t>master 도 가능해 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -970,44 +757,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">UBC
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>西安大略大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The University of Western Ontario</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOSTON University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1025,18 +779,6 @@
   <si>
     <t>pin:25L898Q3799
 passwd:Nimama2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>university of alberta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yale?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boston?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1244,6 +986,258 @@
   <si>
     <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
 https://horizon.mcgill.ca/pban1/hzskalog.P_DispAppLogin?p_langue=01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring is October 15
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SPRING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+웹 reference 추천.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$17,228</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 학비.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+good, nearlly all MS get full aid. 자동으로 고려대상이 됨.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note/GRE requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:
+https://www.cs.ubc.ca/students/grad/prospective/applying/documents
+신청 시슷템:
+http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university of alberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yale?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-15
+전자추천 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>西安大略大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The University of Western Ontario</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>皇后大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Queen University</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>滑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁卢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> University of Waterloo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>麦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吉尔大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> McGill University</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bu.edu/cs/graduate/admissions/
+apply:https://www.bu.edu/link/bin/uiscgi_graduate_application.pl/uismpl?ThisCollege=grs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1254,7 +1248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1502,15 +1496,33 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="6"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="6"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1518,7 +1530,7 @@
     </font>
     <font>
       <u/>
-      <sz val="6"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1847,7 +1859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1916,12 +1928,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1935,9 +1941,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1986,12 +1989,54 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2004,138 +2049,34 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2145,14 +2086,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2431,11 +2372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2457,356 +2398,356 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" s="38" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="35" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="50">
+        <v>41289</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="69" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="71">
-        <v>41289</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="D12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" s="14" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>173</v>
+      <c r="B15" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="25"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
+        <v>41122</v>
+      </c>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="4">
+        <v>40923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="35" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="35" customFormat="1" ht="29.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="27"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7">
-        <v>41122</v>
-      </c>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="4">
-        <v>40923</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>82</v>
+      <c r="C78" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="I8" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2826,42 +2767,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>60.3</v>
@@ -2881,16 +2822,16 @@
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>99</v>
+      <c r="C3" s="68" t="s">
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>46.1</v>
@@ -2913,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>50.2</v>
@@ -2931,18 +2872,18 @@
         <v>44.2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>41</v>
+      <c r="C5" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>45</v>
@@ -2962,16 +2903,16 @@
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>19.100000000000001</v>
@@ -2984,21 +2925,21 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>28.8</v>
@@ -3011,21 +2952,21 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>18</v>
@@ -3038,21 +2979,21 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>20.9</v>
@@ -3065,21 +3006,21 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>14.6</v>
@@ -3092,21 +3033,21 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="8">
         <v>41194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>24.9</v>
@@ -3119,7 +3060,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -3127,10 +3068,10 @@
         <v>41194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>21.7</v>
@@ -3143,21 +3084,21 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="8">
         <v>41194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
         <v>13.5</v>
@@ -3170,7 +3111,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3133,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3205,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3218,252 +3159,252 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="62" t="s">
+      <c r="F10" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="46">
+        <v>28</v>
+      </c>
+      <c r="D11" s="46">
+        <v>26</v>
+      </c>
+      <c r="E11" s="46">
+        <v>24</v>
+      </c>
+      <c r="F11" s="46">
+        <v>27</v>
+      </c>
+      <c r="G11" s="46">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="61"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="41"/>
+      <c r="B13" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="64"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
+      <c r="B14" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="56"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="42">
+        <v>39897</v>
+      </c>
+      <c r="B16" s="43">
+        <v>400</v>
+      </c>
+      <c r="C16" s="43">
         <v>146</v>
       </c>
-      <c r="E10" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="63">
+      <c r="D16" s="43"/>
+      <c r="E16" s="44">
         <v>28</v>
       </c>
-      <c r="D11" s="63">
-        <v>26</v>
-      </c>
-      <c r="E11" s="63">
-        <v>24</v>
-      </c>
-      <c r="F11" s="63">
-        <v>27</v>
-      </c>
-      <c r="G11" s="63">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="50"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="55"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="61"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="45">
-        <v>39897</v>
-      </c>
-      <c r="B16" s="46">
-        <v>400</v>
-      </c>
-      <c r="C16" s="46">
-        <v>146</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47">
-        <v>28</v>
-      </c>
-      <c r="F16" s="46">
+      <c r="F16" s="43">
         <v>800</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="43">
         <v>166</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47">
+      <c r="H16" s="43"/>
+      <c r="I16" s="44">
         <v>94</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="43">
         <v>3</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="44">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -3473,86 +3414,92 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3562,12 +3509,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
   <si>
     <t>Univ</t>
   </si>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Il-Taek Lim </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>South Korea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1237,7 +1233,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cs:http://ga.soe.ucsc.edu/admissions</t>
+    <t>cs:http://ga.soe.ucsc.edu/admissions
+https://apply.embark.com/Grad/UCSantaCruz/83/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Il-Taek Lim </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page9,10,
+얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,13 +1500,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2007,6 +2006,27 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2048,27 +2068,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2376,7 +2375,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2398,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>6</v>
@@ -2410,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2424,102 +2423,105 @@
     </row>
     <row r="2" spans="1:9" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>83</v>
       </c>
       <c r="H2" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="35" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="35" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="35" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="35" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>159</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>151</v>
+        <v>176</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>150</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="50">
         <v>41289</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2528,44 +2530,44 @@
     </row>
     <row r="12" spans="1:9" s="14" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>84</v>
@@ -2590,14 +2592,14 @@
       <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:3" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
-        <v>170</v>
+      <c r="A22" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2611,7 +2613,7 @@
     </row>
     <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="4">
         <v>40923</v>
@@ -2619,7 +2621,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -2702,11 +2704,11 @@
       </c>
     </row>
     <row r="74" spans="1:9" s="35" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="65" t="s">
-        <v>102</v>
+      <c r="A74" s="51" t="s">
+        <v>101</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>66</v>
@@ -2715,7 +2717,7 @@
         <v>65</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F74" s="35" t="s">
         <v>81</v>
@@ -2725,17 +2727,17 @@
       </c>
     </row>
     <row r="78" spans="1:9" s="35" customFormat="1" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="65" t="s">
+      <c r="A78" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="66" t="s">
-        <v>155</v>
+      <c r="B78" s="52" t="s">
+        <v>154</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -2827,8 +2829,8 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>173</v>
+      <c r="C3" s="54" t="s">
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2880,7 +2882,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -2909,7 +2911,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -2963,7 +2965,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -2990,7 +2992,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -3017,7 +3019,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -3146,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3164,7 +3166,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3172,20 +3174,20 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3200,33 +3202,33 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="D10" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="E10" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="F10" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="G10" s="45" t="s">
         <v>134</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>136</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>137</v>
       </c>
       <c r="C11" s="46">
         <v>28</v>
@@ -3246,95 +3248,95 @@
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="59" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="61"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="37" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="71"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="37" t="s">
+      <c r="C14" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="64"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="53" t="s">
+      <c r="E14" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="H14" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="63"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="38" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="52"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
@@ -3384,7 +3386,7 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
@@ -3394,12 +3396,12 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
@@ -3419,7 +3421,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -3449,17 +3451,17 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
@@ -3469,17 +3471,17 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
@@ -3489,7 +3491,7 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -934,11 +934,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kimchewroo@gmail.com
-caonima2009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1233,17 +1228,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">Il-Taek Lim </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page9,10,
+얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cs:http://ga.soe.ucsc.edu/admissions
 https://apply.embark.com/Grad/UCSantaCruz/83/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Il-Taek Lim </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page9,10,
-얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..</t>
+    <t xml:space="preserve">kimchewroo@gmail.com
+caonima2009
+JSun548
+3039
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1254,7 +1257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1522,15 +1525,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2024,9 +2018,6 @@
     <xf numFmtId="22" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2069,13 +2060,84 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2085,14 +2147,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2373,9 +2435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2409,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2429,7 +2491,7 @@
         <v>113</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>90</v>
@@ -2443,10 +2505,10 @@
     </row>
     <row r="4" spans="1:9" s="35" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="35" t="s">
@@ -2458,13 +2520,13 @@
         <v>106</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>150</v>
+        <v>177</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>178</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>96</v>
@@ -2473,32 +2535,32 @@
         <v>149</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="50">
         <v>41289</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -2506,7 +2568,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>139</v>
@@ -2533,7 +2595,7 @@
         <v>98</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>104</v>
@@ -2550,7 +2612,7 @@
         <v>94</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>141</v>
@@ -2567,7 +2629,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>84</v>
@@ -2593,10 +2655,10 @@
     </row>
     <row r="22" spans="1:3" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>105</v>
@@ -2708,7 +2770,7 @@
         <v>101</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>66</v>
@@ -2717,7 +2779,7 @@
         <v>65</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F74" s="35" t="s">
         <v>81</v>
@@ -2731,13 +2793,13 @@
         <v>82</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2882,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -2965,7 +3027,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -3148,8 +3210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3182,7 +3244,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3250,93 +3312,93 @@
       <c r="A12" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="66" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="66" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="68"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="37" t="s">
         <v>123</v>
       </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="37" t="s">
         <v>123</v>
       </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="71"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="59" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="59" t="s">
         <v>124</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="57" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="63"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="61"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="59"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
@@ -3461,7 +3523,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="181">
   <si>
     <t>Univ</t>
   </si>
@@ -307,11 +307,6 @@
       </rPr>
       <t>SPRING</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmail
-Nimama2011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -719,28 +714,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>limited</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>waterloo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>University of Toronto 
 (msac 는 하면 안돼.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Honors and Awards received 안썻으.
-Supplemental Info 거의 PS급이다. 안썻으.
-요구하는 문서가 생각보다 많은것 같다. 잘 체크하기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS:
-http://compsci.rice.edu/academics.cfm?doc_id=4788
-gradappmail:gradapp@cs.rice.edu.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -887,17 +866,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zheyujin,Nimama2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
-신청페이지 시간 제한 있으. 
-https://www.isis.ufl.edu/cgi-bin/eaglec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -935,10 +904,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청이 너무 시끄럽다.. 하지말가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1214,17 +1179,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Boston</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.bu.edu/cs/graduate/admissions/
-apply:https://www.bu.edu/link/bin/uiscgi_graduate_application.pl/uismpl?ThisCollege=grs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1247,6 +1202,110 @@
 JSun548
 3039
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bu.edu/cs/graduate/admissions/
+http://www.bu.edu/cas/prospective-students/graduate-admissions/apply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+https://www.gradbase.ualberta.ca/sso/pages/login.jsp
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply주소가 이상하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 시스템에 계정 개설 안된다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
+신청페이지 시간 제한 있으. 
+https://www.isis.ufl.edu/cgi-bin/eaglec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">limited,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Statement of Purpose 안썻다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS:
+http://compsci.rice.edu/academics.cfm?doc_id=4788
+gradappmail:gradapp@cs.rice.edu.
+https://csgradapps.rice.edu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail
+Nimama2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Honors and Awards received 안썻으.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supplemental Info 거의 PS급이다. 안썻으.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Master 는 professional master 다 , 하면 안돼.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,7 +1316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,6 +1583,22 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1852,7 +1927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2018,6 +2093,27 @@
     <xf numFmtId="22" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2042,25 +2138,7 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2435,9 +2513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2459,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>6</v>
@@ -2471,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2480,163 +2558,169 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="35" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>178</v>
+        <v>168</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>169</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="14" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B7" s="50">
         <v>41289</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>172</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="22"/>
     </row>
-    <row r="12" spans="1:9" s="14" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>39</v>
@@ -2655,13 +2739,13 @@
     </row>
     <row r="22" spans="1:3" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2675,7 +2759,7 @@
     </row>
     <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4">
         <v>40923</v>
@@ -2683,7 +2767,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -2721,85 +2805,85 @@
     </row>
     <row r="72" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="35" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="35" customFormat="1" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A78" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="34" t="s">
-        <v>160</v>
-      </c>
       <c r="D78" s="35" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2892,7 @@
     <hyperlink ref="I8" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId4" display="http://www.bu.edu/cs/graduate/admissions/_x000a__x000a_apply:https://www.bu.edu/link/bin/uiscgi_graduate_application.pl/uismpl?ThisCollege=grs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
@@ -2863,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -2892,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2944,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -2973,7 +3057,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -3027,7 +3111,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -3054,7 +3138,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -3081,7 +3165,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -3210,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3223,12 +3307,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3236,61 +3320,61 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="G10" s="45" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" s="46">
         <v>28</v>
@@ -3310,95 +3394,95 @@
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="67"/>
+        <v>114</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="62"/>
+      <c r="H13" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="63"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="68"/>
+      <c r="B14" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="69"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="68" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="70"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="58"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
@@ -3433,42 +3517,42 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -3478,92 +3562,86 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3573,6 +3651,12 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="184">
   <si>
     <t>Univ</t>
   </si>
@@ -898,11 +898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>statement of interest,안썻으.
-다시 체크해보기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1184,16 +1179,6 @@
   </si>
   <si>
     <t xml:space="preserve">Il-Taek Lim </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page9,10,
-얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://ga.soe.ucsc.edu/admissions
-https://apply.embark.com/Grad/UCSantaCruz/83/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1205,8 +1190,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.bu.edu/cs/graduate/admissions/
-http://www.bu.edu/cas/prospective-students/graduate-admissions/apply/</t>
+    <t>google's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 시스템에 계정 개설 안된다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail
+Nimama2011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1216,25 +1213,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>google's</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply주소가 이상하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 시스템에 계정 개설 안된다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
-신청페이지 시간 제한 있으. 
-https://www.isis.ufl.edu/cgi-bin/eaglec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
+    <t>ID:U51707082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statement of interest,안썻으.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+다시 체크해보기.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+다시 체크해보기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://ga.soe.ucsc.edu/admissions
+https://apply.embark.com/Grad/UCSantaCruz/83/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page9,10,
+얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statement of purpose,안썻으.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">last name과 firstname 바뀜 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1247,11 +1284,21 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Personal Statement page6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Statement of Purpose 안썻다.</t>
+      <t xml:space="preserve"> 안썻다.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1263,8 +1310,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gmail
-Nimama2011</t>
+    <t>http://www.bu.edu/cs/graduate/admissions/
+http://www.bu.edu/cas/prospective-students/graduate-admissions/apply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정개설 approval 메일이 안온다.
+Personal statement.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1306,6 +1358,12 @@
       </rPr>
       <t>Master 는 professional master 다 , 하면 안돼.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
+신청페이지 시간 제한 있으. 
+https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1927,7 +1985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2096,6 +2154,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2114,31 +2199,7 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2514,8 +2575,8 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2549,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2569,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>89</v>
@@ -2583,10 +2644,10 @@
     </row>
     <row r="4" spans="1:9" s="35" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="35" t="s">
@@ -2598,41 +2659,47 @@
         <v>102</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>95</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>170</v>
+        <v>180</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>177</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="50">
         <v>41289</v>
@@ -2641,21 +2708,21 @@
         <v>171</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>110</v>
@@ -2664,7 +2731,7 @@
         <v>133</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>106</v>
@@ -2679,33 +2746,33 @@
         <v>97</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>93</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>143</v>
+      <c r="H13" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2713,7 +2780,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>83</v>
@@ -2739,10 +2806,10 @@
     </row>
     <row r="22" spans="1:3" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>101</v>
@@ -2854,7 +2921,7 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>65</v>
@@ -2863,7 +2930,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F74" s="35" t="s">
         <v>80</v>
@@ -2877,13 +2944,13 @@
         <v>81</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -3028,7 +3095,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -3111,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -3294,7 +3361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -3328,7 +3395,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3396,93 +3463,93 @@
       <c r="A12" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="58" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="58" t="s">
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="37" t="s">
         <v>119</v>
       </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="63"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="61" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="61" t="s">
         <v>120</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="59" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="69"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="67"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
@@ -3607,7 +3674,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
@@ -3642,6 +3709,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3651,12 +3724,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1247,30 +1247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cs:http://ga.soe.ucsc.edu/admissions
-https://apply.embark.com/Grad/UCSantaCruz/83/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page9,10,
-얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>statement of purpose,안썻으.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">last name과 firstname 바뀜 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1364,6 +1340,56 @@
     <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
 신청페이지 시간 제한 있으. 
 https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page9,10,
+얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">statement of purpose,안썻으.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
+https://apply.embark.com/Grad/UCSantaCruz/83/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>여기 장학금정보 꼭 보기.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2157,6 +2183,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2198,9 +2227,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2575,8 +2601,8 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2662,7 +2688,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>166</v>
@@ -2674,7 +2700,7 @@
         <v>174</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
@@ -2685,16 +2711,16 @@
         <v>148</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>177</v>
+      <c r="F6" s="59" t="s">
+        <v>175</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="103.5" x14ac:dyDescent="0.3">
@@ -2731,7 +2757,7 @@
         <v>133</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>106</v>
@@ -2749,13 +2775,13 @@
         <v>144</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>170</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
@@ -2766,7 +2792,7 @@
         <v>149</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>135</v>
@@ -3463,93 +3489,93 @@
       <c r="A12" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="67" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="67" t="s">
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="69"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="37" t="s">
         <v>119</v>
       </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="72"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="62" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="62" t="s">
         <v>120</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="60" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="62"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="60"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="61"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42">

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="7380"/>
@@ -1388,7 +1388,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html</t>
+http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2186,6 +2186,24 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2210,99 +2228,13 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2312,14 +2244,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2602,7 +2534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3489,93 +3421,93 @@
       <c r="A12" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="68" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="68" t="s">
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="70"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="37" t="s">
         <v>119</v>
       </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="73"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="68" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="68" t="s">
         <v>120</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="60" t="s">
+      <c r="K14" s="66" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="63"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="61"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
@@ -3735,12 +3667,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3750,6 +3676,12 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="171">
   <si>
     <t>Univ</t>
   </si>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>required docs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,10 +38,6 @@
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UFL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,10 +143,6 @@
   </si>
   <si>
     <t>ANU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Johns Hopkins UniversityJHU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -255,39 +243,7 @@
     </r>
   </si>
   <si>
-    <t>두개의  noline system 에서 동시에 신청 해야된다. !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring :September 14, 2012
-M.S.E.(for Spring 2012): </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.grad.jhu.edu/admissions/index.php
-deadline:
-http://grad.jhu.edu/academics/programs/
-applicattion: http://www.grad.jhu.edu/admissions/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSE는 TA해도 학비면제가안대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stonybrook university</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>october 1st.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석사는 장학금없어.donot.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -437,14 +393,6 @@
   </si>
   <si>
     <t>kimcherwoo@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT9074620
-Nimama2012
-Userid:  IT9895700
-Challenge question:  What is the name of the place where you were born?
-Challenge answer:  helong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -562,28 +510,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>McGill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중국학생에 대해 까다롭다. 
 Application stage 에서도 하드코피자료 바친다.
 GRE not required.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://apply.sgs.utoronto.ca/
-201208187329  Nimama2011(아직 미오픈)
-intro : http://web.cs.toronto.edu/program/prospective_gradwhy/mscac.htm
-https://gradapps.cs.toronto.edu/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(+82)-010-8301-0173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -690,23 +623,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>master 도 가능해 보인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>麦克马斯特大学 McMaster University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RICE university</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -734,14 +655,6 @@
   <si>
     <t xml:space="preserve">UBC
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSTON University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCSD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -858,10 +771,6 @@
     <t>Sun Jul 15 11:04:00 EDT 2012</t>
   </si>
   <si>
-    <t xml:space="preserve">접촉한 선생의 이름 쓰란다. 흑인 이름써. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jianwei Sun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -906,10 +815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1월 1일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1월2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -930,89 +835,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zheyu2012,
-Nimam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:http://www.cs.mcgill.ca/prospective-students/graduate/applying/applying
-https://horizon.mcgill.ca/pban1/hzskalog.P_DispAppLogin?p_langue=01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spring is October 15
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SPRING</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-웹 reference 추천.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$17,228</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 학비.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-good, nearlly all MS get full aid. 자동으로 고려대상이 됨.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>note/GRE requirement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:
-https://www.cs.ubc.ca/students/grad/prospective/applying/documents
-신청 시슷템:
-http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>university of alberta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1207,74 +1030,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID:U51707082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+다시 체크해보기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">last name과 firstname 바뀜 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bu.edu/cs/graduate/admissions/
+http://www.bu.edu/cas/prospective-students/graduate-admissions/apply/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정개설 approval 메일이 안온다.
+Personal statement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:
+https://www.cs.ubc.ca/students/grad/prospective/applying/documents
+신청 시슷템:
+http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
+신청페이지 시간 제한 있으. 
+https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
+https://apply.embark.com/Grad/UCSantaCruz/83/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>여기 장학금정보 꼭 보기.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page9,10,
+얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">statement of purpose,안썻으.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
 https://www.gradbase.ualberta.ca/sso/pages/login.jsp
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID:U51707082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <t>추천서가 2개는 교수한테서 와야된다, 그래서 메일써 문의함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">접촉한 선생의 이름 쓰란다. 흑인 이름써. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">limited,
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>statement of interest,안썻으.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-다시 체크해보기.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-다시 체크해보기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">last name과 firstname 바뀜 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">limited,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Personal Statement page6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 안썻다.</t>
+      <t>Personal Statement 올렸지만, 수정요망.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1286,18 +1154,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.bu.edu/cs/graduate/admissions/
-http://www.bu.edu/cas/prospective-students/graduate-admissions/apply/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정개설 approval 메일이 안온다.
-Personal statement.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Honors and Awards received 안썻으.
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statement of interest,올렸으. 수정요망.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+다시 체크해보기.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">statement of interest,올렸으. 수정요망.
 </t>
     </r>
     <r>
@@ -1309,87 +1192,130 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Supplemental Info 거의 PS급이다. 안썻으.</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Master 는 professional master 다 , 하면 안돼.
+Android 책이름이 뭐더라?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OSU/거의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE university/거의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL/거의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring is October 15
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-.
-</t>
+      <t>SPRING</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Master 는 professional master 다 , 하면 안돼.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
-신청페이지 시간 제한 있으. 
-https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page9,10,
-얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..
-</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">
+웹 reference 추천.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$17,228</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">statement of purpose,안썻으.
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
-https://apply.embark.com/Grad/UCSantaCruz/83/
-</t>
+      <t xml:space="preserve"> 학비.</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>여기 장학금정보 꼭 보기.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t xml:space="preserve">
+good, nearlly all MS get full aid. 자동으로 고려대상이 됨.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT9074620
+Nimama2012
+Userid:  IT9895700
+Challenge question:  What is the name of the place where you were born?
+Challenge answer:  helong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.Sc. in Applied Computing 만남았어.
+신청은 두 시스템에서 해야된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개의  noline system 에서 동시에 신청 해야된다. !
+GRE institution code - 0982 Department code - 0402
+TOEFL Institution code - 0982  Department Code - 78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://apply.sgs.utoronto.ca/
+201208187329  Nimama2011
+https://gradapps.cs.toronto.edu/~mscac13/apply?loginKey=FY0YQNTQBFUHK7KAV5ZAMULFLNDVAGCI
+https://apply.sgs.utoronto.ca/home.aspx //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html </t>
-    </r>
+      <t>거의 완성</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterloo??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university of alberta
+UW와 바꿀가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1400,7 +1326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1665,7 +1591,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -1674,7 +1599,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1682,8 +1607,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="6"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="6"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="6"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2011,7 +2010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2046,9 +2045,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2087,9 +2083,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2171,62 +2164,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2530,18 +2553,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="18" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
@@ -2556,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2568,356 +2591,315 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="33" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="72" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="H8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="I8" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="48">
+        <v>41289</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="24"/>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="35" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" s="33" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="19"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="26" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="35" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="14" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="B73" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="14" customFormat="1" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="50">
-        <v>41289</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" s="14" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" s="35" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7">
-        <v>41122</v>
-      </c>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="4">
-        <v>40923</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="35" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F74" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="35" customFormat="1" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>151</v>
-      </c>
+      <c r="F73" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="33" customFormat="1" ht="9.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4" display="http://www.bu.edu/cs/graduate/admissions/_x000a__x000a_apply:https://www.bu.edu/link/bin/uiscgi_graduate_application.pl/uismpl?ThisCollege=grs"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="C18" r:id="rId4" display="http://www.bu.edu/cs/graduate/admissions/_x000a__x000a_apply:https://www.bu.edu/link/bin/uiscgi_graduate_application.pl/uismpl?ThisCollege=grs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
@@ -2940,42 +2922,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>60.3</v>
@@ -2995,16 +2977,16 @@
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>163</v>
+      <c r="C3" s="52" t="s">
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>46.1</v>
@@ -3027,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>50.2</v>
@@ -3045,7 +3027,7 @@
         <v>44.2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -3053,10 +3035,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>45</v>
@@ -3076,16 +3058,16 @@
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>19.100000000000001</v>
@@ -3098,21 +3080,21 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>28.8</v>
@@ -3125,21 +3107,21 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>18</v>
@@ -3152,21 +3134,21 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>20.9</v>
@@ -3179,21 +3161,21 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>14.6</v>
@@ -3206,21 +3188,21 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8">
         <v>41194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <v>24.9</v>
@@ -3233,7 +3215,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -3241,10 +3223,10 @@
         <v>41194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1">
         <v>21.7</v>
@@ -3257,21 +3239,21 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8">
         <v>41194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1">
         <v>13.5</v>
@@ -3284,7 +3266,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3306,7 +3288,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3319,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3332,252 +3314,252 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>136</v>
+      <c r="B2" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>63</v>
+      <c r="B7" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>130</v>
+      <c r="A10" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="46">
+      <c r="A11" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="44">
         <v>28</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="44">
         <v>26</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="44">
         <v>24</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="44">
         <v>27</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="44">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="62"/>
+      <c r="A12" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="65"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" s="66" t="s">
-        <v>123</v>
+      <c r="A14" s="58"/>
+      <c r="B14" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="71"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="67"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42">
+      <c r="A16" s="40">
         <v>39897</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="41">
         <v>400</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>146</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44">
+      <c r="D16" s="41"/>
+      <c r="E16" s="42">
         <v>28</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="41">
         <v>800</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="41">
         <v>166</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44">
+      <c r="H16" s="41"/>
+      <c r="I16" s="42">
         <v>94</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="41">
         <v>3</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="42">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -3586,87 +3568,93 @@
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="s">
-        <v>54</v>
+      <c r="B32" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
-        <v>71</v>
+      <c r="B38" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
-        <v>59</v>
+      <c r="B40" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="s">
-        <v>87</v>
+      <c r="B44" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="15" t="s">
-        <v>60</v>
+      <c r="B47" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3676,12 +3664,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
   <si>
     <t>Univ</t>
   </si>
@@ -471,11 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2JW77N8Q849
-Nimama2011 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ronald Parr, Carlo Tomasi, Vincent Conit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,13 +485,6 @@
 grad-info@cs.purdue.edu
 cs homepage:
 http://www.cs.purdue.edu/academic_programs/graduate/admission/steps.sxhtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro
-http://www.cs.duke.edu/education/graduate/prospective/resources
-신청:
-https://app.applyyourself.com/?id=DukeGrad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1017,10 +1005,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신청 시스템에 계정 개설 안된다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1113,20 +1097,6 @@
       <t xml:space="preserve">statement of purpose,안썻으.
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-https://www.gradbase.ualberta.ca/sso/pages/login.jsp
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천서가 2개는 교수한테서 와야된다, 그래서 메일써 문의함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">접촉한 선생의 이름 쓰란다. 흑인 이름써. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1284,12 +1254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>두개의  noline system 에서 동시에 신청 해야된다. !
-GRE institution code - 0982 Department code - 0402
-TOEFL Institution code - 0982  Department Code - 78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>https://apply.sgs.utoronto.ca/
 201208187329  Nimama2011
@@ -1310,12 +1274,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Waterloo??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>university of alberta
 UW와 바꿀가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterloo??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/G code 5812
+TG sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접촉한 선생의 이름 쓰란다. 흑인 이름써. 
+T/G 1592
+TG sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6609 T/G
+TG sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개의  noline system 에서 동시에 신청 해야된다. !
+TG sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro
+http://www.cs.duke.edu/education/graduate/prospective/resources
+신청:
+https://app.applyyourself.com/?id=DukeGrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2JW77N8Q849
+Nimama2011 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
+https://www.gradbase.ualberta.ca/sso/pages/login.jsp
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAP 라는 시스템에서 계정 다시 만들고 시작해야돼.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2167,6 +2175,66 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2190,66 +2258,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2556,8 +2564,8 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2579,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>5</v>
@@ -2591,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2605,104 +2613,107 @@
     </row>
     <row r="2" spans="1:9" s="33" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="32" t="s">
+    </row>
+    <row r="4" spans="1:9" s="58" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="58" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="72" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="79" t="s">
-        <v>166</v>
+      <c r="H6" s="65" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="I8" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2711,44 +2722,45 @@
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B13" s="48">
         <v>41289</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F13" s="63"/>
       <c r="H13" s="53" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
-        <v>169</v>
+      <c r="A14" s="67" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -2756,35 +2768,35 @@
       <c r="B16" s="24"/>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>147</v>
+      <c r="A18" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>144</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="76"/>
+      <c r="A19" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="62"/>
       <c r="D19" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2793,13 +2805,13 @@
     </row>
     <row r="21" spans="1:8" s="33" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2827,10 +2839,10 @@
         <v>39</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>41</v>
@@ -2850,10 +2862,10 @@
         <v>37</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>57</v>
@@ -2862,27 +2874,27 @@
         <v>46</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="26" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="66" t="s">
         <v>54</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H73" s="26" t="s">
         <v>38</v>
@@ -2954,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -2983,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -3035,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -3064,7 +3076,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -3118,7 +3130,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -3145,7 +3157,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
@@ -3172,7 +3184,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -3319,7 +3331,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3327,25 +3339,25 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3355,33 +3367,33 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="E10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="F10" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="G10" s="43" t="s">
         <v>109</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="44">
         <v>28</v>
@@ -3401,95 +3413,95 @@
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="64"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="73"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="78"/>
+      <c r="B14" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="65" t="s">
+      <c r="D14" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="35" t="s">
+      <c r="E14" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="56" t="s">
+      <c r="H14" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="79"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="60" t="s">
+      <c r="D15" s="81"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="55"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="75"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40">
@@ -3539,7 +3551,7 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
@@ -3549,12 +3561,12 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
@@ -3574,7 +3586,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -3604,17 +3616,17 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
@@ -3624,17 +3636,17 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
@@ -3644,17 +3656,11 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3664,6 +3670,12 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
   <si>
     <t>Univ</t>
   </si>
@@ -1324,6 +1324,14 @@
   </si>
   <si>
     <t>GAP 라는 시스템에서 계정 다시 만들고 시작해야돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TEST Institution Department
+TOEFL 0963 78
+GRE 0963 0402
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2217,6 +2225,30 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2233,30 +2265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2565,7 +2573,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2753,7 +2761,9 @@
       <c r="D13" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="63"/>
+      <c r="F13" s="63" t="s">
+        <v>172</v>
+      </c>
       <c r="H13" s="53" t="s">
         <v>171</v>
       </c>
@@ -3313,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3415,93 +3425,93 @@
       <c r="A12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="68" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="68" t="s">
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="70"/>
+      <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="35" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="34"/>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="35" t="s">
         <v>98</v>
       </c>
       <c r="I13" s="34"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="73"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="76" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="70" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="70" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="68" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="79"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="77"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="69"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40">
@@ -3661,6 +3671,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3670,12 +3686,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="174">
   <si>
     <t>Univ</t>
   </si>
@@ -1044,12 +1044,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
-신청페이지 시간 제한 있으. 
-https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
 https://apply.embark.com/Grad/UCSantaCruz/83/
@@ -1274,11 +1268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>university of alberta
-UW와 바꿀가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Waterloo??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1332,6 +1321,21 @@
 TOEFL 0963 78
 GRE 0963 0402
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university of alberta
+UW와 바꿀가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE ID:kimcherwoo Nimama2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
+신청페이지 시간 제한 있으. 
+https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2572,8 +2576,8 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2647,7 +2651,7 @@
         <v>127</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="57" t="s">
         <v>137</v>
@@ -2659,7 +2663,7 @@
         <v>142</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2670,40 +2674,40 @@
         <v>124</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>126</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>125</v>
@@ -2715,10 +2719,10 @@
         <v>89</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>85</v>
@@ -2730,47 +2734,47 @@
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>140</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B13" s="48">
         <v>41289</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>138</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -2872,10 +2876,10 @@
         <v>37</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>57</v>
@@ -2892,16 +2896,16 @@
         <v>80</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" s="66" t="s">
         <v>54</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F73" s="26" t="s">
         <v>67</v>
@@ -3324,7 +3328,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3337,6 +3341,9 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="7380"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
   <si>
     <t>Univ</t>
   </si>
@@ -627,11 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Toronto 
-(msac 는 하면 안돼.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intro:http://www.csd.uwo.ca/new_grad/app_procedures.shtml
 chinese prof:http://www.csd.uwo.ca/~cling/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1005,10 +1000,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gmail
 Nimama2011</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,58 +1110,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve">statement of interest,올렸으. 수정요망.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>statement of interest,올렸으. 수정요망.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-다시 체크해보기.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">statement of interest,올렸으. 수정요망.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Master 는 professional master 다 , 하면 안돼.
 Android 책이름이 뭐더라?</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">OSU/거의 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RICE university/거의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UFL/거의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1243,8 +1201,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Waterloo??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/G code 5812
+TG sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접촉한 선생의 이름 쓰란다. 흑인 이름써. 
+T/G 1592
+TG sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6609 T/G
+TG sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개의  noline system 에서 동시에 신청 해야된다. !
+TG sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro
+http://www.cs.duke.edu/education/graduate/prospective/resources
+신청:
+https://app.applyyourself.com/?id=DukeGrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2JW77N8Q849
+Nimama2011 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAP 라는 시스템에서 계정 다시 만들고 시작해야돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university of alberta
+UW와 바꿀가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE ID:kimcherwoo Nimama2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
+신청페이지 시간 제한 있으. 
+https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement of interest,올렸으. 수정요망.
+다시 체크해보기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TG sent
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSU/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201208187329  Nimama2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>M.Sc. in Applied Computing 만남았어.
-신청은 두 시스템에서 해야된다</t>
+신청은 두 시스템에서 해야된다
+첫 시스템:Please check the graduate unit's website for instructions on how to submit references.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
+https://www.gradbase.ualberta.ca/sso/pages/login.jsp
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Toronto 
+(msac 는 하면 안돼.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1263,79 +1317,9 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>거의 완성</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waterloo??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T/G code 5812
-TG sent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접촉한 선생의 이름 쓰란다. 흑인 이름써. 
-T/G 1592
-TG sent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6609 T/G
-TG sent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두개의  noline system 에서 동시에 신청 해야된다. !
-TG sent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro
-http://www.cs.duke.edu/education/graduate/prospective/resources
-신청:
-https://app.applyyourself.com/?id=DukeGrad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2JW77N8Q849
-Nimama2011 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
-https://www.gradbase.ualberta.ca/sso/pages/login.jsp
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAP 라는 시스템에서 계정 다시 만들고 시작해야돼.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-TEST Institution Department
-TOEFL 0963 78
-GRE 0963 0402
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>university of alberta
-UW와 바꿀가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRE ID:kimcherwoo Nimama2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
-신청페이지 시간 제한 있으. 
-https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
+      <t>거의 완성
+https://gradapps.cs.toronto.edu/~mscac13/apply?loginKey=YAFBF0UMIFSNHRZ4Z5R77FRM325V9N07</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,14 +1603,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="6"/>
       <name val="맑은 고딕"/>
@@ -1703,6 +1679,21 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2030,7 +2021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2100,9 +2091,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2187,47 +2175,65 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2253,31 +2259,93 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2287,14 +2355,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2576,8 +2644,8 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2611,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2623,109 +2691,111 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="32" t="s">
+    <row r="2" spans="1:9" s="32" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="58" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>81</v>
+    </row>
+    <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>174</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="81" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>153</v>
+      <c r="A8" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>163</v>
+        <v>88</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>156</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2734,98 +2804,98 @@
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="47">
+        <v>41289</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="47" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="48">
-        <v>41289</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="24"/>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:8" s="33" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="1:8" s="32" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>82</v>
+      <c r="B21" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2876,10 +2946,10 @@
         <v>37</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>57</v>
@@ -2891,33 +2961,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="26" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29" t="s">
+    <row r="73" spans="1:9" s="25" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="66" t="s">
+      <c r="B73" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D73" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F73" s="26" t="s">
+      <c r="D73" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H73" s="26" t="s">
+      <c r="H73" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="33" customFormat="1" ht="9.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="32"/>
+    <row r="77" spans="1:9" s="32" customFormat="1" ht="9.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="48"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3008,8 +3078,8 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>134</v>
+      <c r="C3" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -3061,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -3144,7 +3214,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -3343,12 +3413,12 @@
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3356,20 +3426,20 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3383,171 +3453,171 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="D10" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="43">
+        <v>28</v>
+      </c>
+      <c r="D11" s="43">
+        <v>26</v>
+      </c>
+      <c r="E11" s="43">
+        <v>24</v>
+      </c>
+      <c r="F11" s="43">
+        <v>27</v>
+      </c>
+      <c r="G11" s="43">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="44">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="69"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38"/>
+      <c r="B13" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="72"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="77"/>
+      <c r="B14" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="78"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="74"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="39">
+        <v>39897</v>
+      </c>
+      <c r="B16" s="40">
+        <v>400</v>
+      </c>
+      <c r="C16" s="40">
+        <v>146</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41">
         <v>28</v>
       </c>
-      <c r="D11" s="44">
-        <v>26</v>
-      </c>
-      <c r="E11" s="44">
-        <v>24</v>
-      </c>
-      <c r="F11" s="44">
-        <v>27</v>
-      </c>
-      <c r="G11" s="44">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="76" t="s">
+      <c r="F16" s="40">
+        <v>800</v>
+      </c>
+      <c r="G16" s="40">
+        <v>166</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41">
         <v>94</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="78"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="81"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="73"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="69"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40">
-        <v>39897</v>
-      </c>
-      <c r="B16" s="41">
-        <v>400</v>
-      </c>
-      <c r="C16" s="41">
-        <v>146</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42">
-        <v>28</v>
-      </c>
-      <c r="F16" s="41">
-        <v>800</v>
-      </c>
-      <c r="G16" s="41">
-        <v>166</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42">
-        <v>94</v>
-      </c>
-      <c r="J16" s="41">
+      <c r="J16" s="40">
         <v>3</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="41">
         <v>11</v>
       </c>
     </row>
@@ -3568,7 +3638,7 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
@@ -3578,12 +3648,12 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
@@ -3603,7 +3673,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -3633,7 +3703,7 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
@@ -3643,7 +3713,7 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
@@ -3653,12 +3723,12 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
@@ -3678,12 +3748,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3693,6 +3757,12 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="7380"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="177">
   <si>
     <t>Univ</t>
   </si>
@@ -377,10 +377,6 @@
   </si>
   <si>
     <t>sunghyun.yoo@nexstreaming.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iltaek.lim@nexstreaming.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1102,13 +1098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CS:
-http://compsci.rice.edu/academics.cfm?doc_id=4788
-gradappmail:gradapp@cs.rice.edu.
-https://csgradapps.rice.edu/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">statement of interest,올렸으. 수정요망.
 </t>
@@ -1125,10 +1114,6 @@
       <t>Master 는 professional master 다 , 하면 안돼.
 Android 책이름이 뭐더라?</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RICE university/거의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1201,10 +1186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Waterloo??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T/G code 5812
 TG sent</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1242,11 +1223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>university of alberta
-UW와 바꿀가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GRE ID:kimcherwoo Nimama2011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1284,21 +1260,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M.Sc. in Applied Computing 만남았어.
-신청은 두 시스템에서 해야된다
-첫 시스템:Please check the graduate unit's website for instructions on how to submit references.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
-https://www.gradbase.ualberta.ca/sso/pages/login.jsp
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Toronto 
-(msac 는 하면 안돼.)</t>
+    <t>duke.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1320,6 +1282,50 @@
       <t>거의 완성
 https://gradapps.cs.toronto.edu/~mscac13/apply?loginKey=YAFBF0UMIFSNHRZ4Z5R77FRM325V9N07</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
+https://gaps.cs.ualberta.ca/
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iltaek.lim@nexstreaming.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS:
+http://compsci.rice.edu/academics.cfm?doc_id=4788
+gradappmail:gradapp@cs.rice.edu.
+https://csgradapps.rice.edu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE university/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">university of alberta/half done, ref만 남음.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Toronto 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref sent.</t>
+  </si>
+  <si>
+    <t>ref sent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.Sc. in Applied Computing 만남았어.
+두번째 시스템에서 진행중.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2217,6 +2223,42 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2235,117 +2277,13 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2355,14 +2293,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2643,9 +2581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2667,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>5</v>
@@ -2679,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2688,50 +2626,50 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="32" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="57" t="s">
         <v>145</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2739,63 +2677,72 @@
         <v>173</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="81" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="67" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="81" t="s">
-        <v>165</v>
+      <c r="B7" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2804,47 +2751,53 @@
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B13" s="47">
         <v>41289</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="66" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -2853,34 +2806,34 @@
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2889,13 +2842,13 @@
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2923,10 +2876,10 @@
         <v>39</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>41</v>
@@ -2935,7 +2888,7 @@
         <v>45</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="132" x14ac:dyDescent="0.3">
@@ -2946,39 +2899,39 @@
         <v>37</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="25" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H73" s="25" t="s">
         <v>38</v>
@@ -3050,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -3079,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -3131,7 +3084,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -3160,7 +3113,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -3214,7 +3167,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -3241,7 +3194,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
@@ -3268,7 +3221,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -3398,7 +3351,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3413,12 +3366,12 @@
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3426,61 +3379,61 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="D10" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="E10" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="F10" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="G10" s="42" t="s">
         <v>107</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>110</v>
       </c>
       <c r="C11" s="43">
         <v>28</v>
@@ -3500,95 +3453,95 @@
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="67" t="s">
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="69"/>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38"/>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="34" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="84"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="75"/>
+      <c r="B14" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="34" t="s">
+      <c r="C14" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="72"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="B14" s="75" t="s">
+      <c r="E14" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="H14" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="76"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="35" t="s">
+      <c r="D15" s="78"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="78"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="74"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="72"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39">
@@ -3623,12 +3576,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
@@ -3638,27 +3591,27 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -3673,7 +3626,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -3683,12 +3636,12 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
@@ -3698,56 +3651,62 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3757,12 +3716,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="7380"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
   <si>
     <t>Univ</t>
   </si>
@@ -26,10 +26,6 @@
   </si>
   <si>
     <t>Financial aid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required docs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -992,10 +988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>google's</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gmail
 Nimama2011</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1028,36 +1020,6 @@
 https://www.cs.ubc.ca/students/grad/prospective/applying/documents
 신청 시슷템:
 http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
-https://apply.embark.com/Grad/UCSantaCruz/83/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>여기 장학금정보 꼭 보기.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1227,40 +1189,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>statement of interest,올렸으. 수정요망.
+다시 체크해보기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TG sent
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSU/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201208187329  Nimama2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duke.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iltaek.lim@nexstreaming.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE university/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.Sc. in Applied Computing 만남았어.
+두번째 시스템에서 진행중.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu
+Nimama2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
+https://apply.embark.com/Grad/UCSantaCruz/83/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>여기 장학금정보 꼭 보기.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIM 빠짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS:
+http://compsci.rice.edu/academics.cfm?doc_id=4788
+gradappmail:gradapp@cs.rice.edu.
+https://csgradapps.rice.edu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIM빠짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Toronto 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">university of alberta/done
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
 신청페이지 시간 제한 있으. 
 https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>statement of interest,올렸으. 수정요망.
-다시 체크해보기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-TG sent
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSU/done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UFL/done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201208187329  Nimama2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duke.</t>
+    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1289,43 +1336,6 @@
 docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
 https://gaps.cs.ualberta.ca/
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iltaek.lim@nexstreaming.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS:
-http://compsci.rice.edu/academics.cfm?doc_id=4788
-gradappmail:gradapp@cs.rice.edu.
-https://csgradapps.rice.edu/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RICE university/done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">university of alberta/half done, ref만 남음.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Toronto 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref sent.</t>
-  </si>
-  <si>
-    <t>ref sent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.Sc. in Applied Computing 만남았어.
-두번째 시스템에서 진행중.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2279,11 +2289,79 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2293,14 +2371,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2581,9 +2659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2605,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2617,59 +2695,59 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="32" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2677,72 +2755,72 @@
         <v>173</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="67" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2751,53 +2829,53 @@
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>170</v>
-      </c>
       <c r="D11" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B13" s="47">
         <v>41289</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="66" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
@@ -2806,34 +2884,34 @@
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2842,13 +2920,13 @@
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2865,76 +2943,76 @@
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="25" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="32" customFormat="1" ht="9.75" x14ac:dyDescent="0.3">
@@ -2971,42 +3049,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>60.3</v>
@@ -3026,16 +3104,16 @@
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>46.1</v>
@@ -3058,10 +3136,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>50.2</v>
@@ -3076,7 +3154,7 @@
         <v>44.2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -3084,10 +3162,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>45</v>
@@ -3107,16 +3185,16 @@
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>19.100000000000001</v>
@@ -3129,21 +3207,21 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <v>28.8</v>
@@ -3156,21 +3234,21 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1">
         <v>18</v>
@@ -3183,21 +3261,21 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1">
         <v>20.9</v>
@@ -3210,21 +3288,21 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1">
         <v>14.6</v>
@@ -3237,21 +3315,21 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="8">
         <v>41194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
         <v>24.9</v>
@@ -3264,7 +3342,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -3272,10 +3350,10 @@
         <v>41194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1">
         <v>21.7</v>
@@ -3288,21 +3366,21 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8">
         <v>41194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <v>13.5</v>
@@ -3315,7 +3393,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +3415,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3363,77 +3441,77 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="D10" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="E10" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="F10" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="G10" s="42" t="s">
         <v>106</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="C11" s="43">
         <v>28</v>
@@ -3453,41 +3531,41 @@
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="79" t="s">
         <v>91</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>92</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
       <c r="E12" s="81"/>
       <c r="F12" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="80"/>
       <c r="H12" s="80"/>
       <c r="I12" s="81"/>
       <c r="J12" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="81"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38"/>
       <c r="B13" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="83"/>
       <c r="D13" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="83"/>
       <c r="H13" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="82"/>
@@ -3496,47 +3574,47 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="75"/>
       <c r="B14" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>98</v>
-      </c>
       <c r="D14" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="H14" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="73" t="s">
-        <v>101</v>
-      </c>
       <c r="K14" s="71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="76"/>
       <c r="B15" s="74"/>
       <c r="C15" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="78"/>
       <c r="E15" s="72"/>
       <c r="F15" s="74"/>
       <c r="G15" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="78"/>
       <c r="I15" s="72"/>
@@ -3576,42 +3654,42 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -3621,82 +3699,82 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1311,6 +1311,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
+https://gaps.cs.ualberta.ca/
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>https://apply.sgs.utoronto.ca/
 201208187329  Nimama2011
@@ -1329,13 +1336,6 @@
       <t>거의 완성
 https://gradapps.cs.toronto.edu/~mscac13/apply?loginKey=YAFBF0UMIFSNHRZ4Z5R77FRM325V9N07</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
-https://gaps.cs.ualberta.ca/
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2245,6 +2245,24 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2267,24 +2285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2660,8 +2660,8 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2758,7 @@
         <v>121</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>160</v>
@@ -2858,7 +2858,7 @@
         <v>41289</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>165</v>
@@ -3533,93 +3533,93 @@
       <c r="A12" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="79" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="79" t="s">
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="81"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38"/>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="33"/>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="34" t="s">
         <v>95</v>
       </c>
       <c r="I13" s="33"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="84"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="73" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="79" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="79" t="s">
         <v>96</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="77" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="76"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="74"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="72"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="78"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39">
@@ -3779,12 +3779,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3794,6 +3788,12 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="7380"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="180">
   <si>
     <t>Univ</t>
   </si>
@@ -512,12 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gmail address
-Nimama2012
-ubc no:81207136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>多</t>
     </r>
@@ -624,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UC santa cruz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">UBC
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,34 +635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2012-12-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-grad-info@cs.ubc.ca
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jinzheyu, Nimama2012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -747,10 +709,6 @@
   </si>
   <si>
     <t>Jianwei Sun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zheyujin,Nimama2012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -988,11 +946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gmail
-Nimama2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID:U51707082</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,13 +966,6 @@
   <si>
     <t>계정개설 approval 메일이 안온다.
 Personal statement.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:
-https://www.cs.ubc.ca/students/grad/prospective/applying/documents
-신청 시슷템:
-http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1200,10 +1146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OSU/done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UFL/done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1217,10 +1159,6 @@
   </si>
   <si>
     <t>iltaek.lim@nexstreaming.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RICE university/done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1234,49 +1172,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
-https://apply.embark.com/Grad/UCSantaCruz/83/
+    <t>LIM 빠짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIM빠짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Toronto 
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>여기 장학금정보 꼭 보기.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIM 빠짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.applyweb.com/cgi-bin/ustat?formcode=osugrad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC santa cruz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSU/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE university/done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">university of alberta/done
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
+신청페이지 시간 제한 있으. 
+https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zheyujin,Nimam+D12a2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
+docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
+https://gaps.cs.ualberta.ca/
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1287,34 +1242,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LIM빠짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Toronto 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">university of alberta/done
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs:http://www.cise.ufl.edu/admissions/grad/apply.html
-신청페이지 시간 제한 있으. 
-https://www.isis.ufl.edu/cgi-bin/eaglec?page=IGA-INTRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions
-docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
-https://gaps.cs.ualberta.ca/
-</t>
+    <t>gmail
+Nimama2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E301 CSE Building, PO Box 116120, Gainesville, FL 32611; (352) 392-1200.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1336,6 +1269,77 @@
       <t>거의 완성
 https://gradapps.cs.toronto.edu/~mscac13/apply?loginKey=YAFBF0UMIFSNHRZ4Z5R77FRM325V9N07</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2012-12-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+grad-info@cs.ubc.ca
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:
+https://www.cs.ubc.ca/students/grad/prospective/applying/documents
+신청 시슷템:
+http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
+https://apply.embark.com/Grad/UCSantaCruz/83/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>여기 장학금정보 꼭 보기.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail address
+Nimama2012
+ubc no:81207136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,12 +1505,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2037,7 +2035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2082,9 +2080,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2106,262 +2101,193 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2371,14 +2297,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2657,18 +2583,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="17" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
@@ -2683,9 +2609,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2695,10 +2621,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -2707,326 +2633,321 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="32" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="45">
+        <v>41289</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="65" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="30" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="31" t="s">
+    </row>
+    <row r="12" spans="1:9" s="55" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="18"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="23" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="67" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="47">
-        <v>41289</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="24"/>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="E68" s="23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" s="32" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="19"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="25" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="25" t="s">
+      <c r="F68" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H73" s="25" t="s">
+      <c r="H68" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="32" customFormat="1" ht="9.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="48"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="31"/>
+    <row r="72" spans="1:9" s="30" customFormat="1" ht="9.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="46"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="C18" r:id="rId4" display="http://www.bu.edu/cs/graduate/admissions/_x000a__x000a_apply:https://www.bu.edu/link/bin/uiscgi_graduate_application.pl/uismpl?ThisCollege=grs"/>
+    <hyperlink ref="I5" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="D12" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId4" display="http://www.bu.edu/cs/graduate/admissions/_x000a__x000a_apply:https://www.bu.edu/link/bin/uiscgi_graduate_application.pl/uismpl?ThisCollege=grs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
@@ -3081,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -3109,8 +3030,8 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>131</v>
+      <c r="C3" s="49" t="s">
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -3162,7 +3083,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -3191,7 +3112,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -3245,7 +3166,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -3272,7 +3193,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -3299,7 +3220,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -3444,12 +3365,12 @@
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>111</v>
+      <c r="B2" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3457,20 +3378,20 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3484,171 +3405,171 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="F10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="41">
+        <v>28</v>
+      </c>
+      <c r="D11" s="41">
+        <v>26</v>
+      </c>
+      <c r="E11" s="41">
+        <v>24</v>
+      </c>
+      <c r="F11" s="41">
+        <v>27</v>
+      </c>
+      <c r="G11" s="41">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="43">
+      <c r="K12" s="71"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36"/>
+      <c r="B13" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="73"/>
+      <c r="H13" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="74"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
+      <c r="B14" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="80"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="82"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="82"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="76"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37">
+        <v>39897</v>
+      </c>
+      <c r="B16" s="38">
+        <v>400</v>
+      </c>
+      <c r="C16" s="38">
+        <v>146</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39">
         <v>28</v>
       </c>
-      <c r="D11" s="43">
-        <v>26</v>
-      </c>
-      <c r="E11" s="43">
-        <v>24</v>
-      </c>
-      <c r="F11" s="43">
-        <v>27</v>
-      </c>
-      <c r="G11" s="43">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="73"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="74" t="s">
+      <c r="F16" s="38">
+        <v>800</v>
+      </c>
+      <c r="G16" s="38">
+        <v>166</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39">
         <v>94</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="76"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="82"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="78"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39">
-        <v>39897</v>
-      </c>
-      <c r="B16" s="40">
-        <v>400</v>
-      </c>
-      <c r="C16" s="40">
-        <v>146</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41">
-        <v>28</v>
-      </c>
-      <c r="F16" s="40">
-        <v>800</v>
-      </c>
-      <c r="G16" s="40">
-        <v>166</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41">
-        <v>94</v>
-      </c>
-      <c r="J16" s="40">
+      <c r="J16" s="38">
         <v>3</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="39">
         <v>11</v>
       </c>
     </row>
@@ -3669,7 +3590,7 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
@@ -3679,12 +3600,12 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
@@ -3704,7 +3625,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -3713,7 +3634,7 @@
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3734,7 +3655,7 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
@@ -3744,22 +3665,22 @@
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">

--- a/summary - 복사본.xlsx
+++ b/summary - 복사본.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="182">
   <si>
     <t>Univ</t>
   </si>
@@ -970,26 +970,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">page9,10,
-얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">statement of purpose,안썻으.
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">limited,
 </t>
     </r>
@@ -1150,10 +1130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201208187329  Nimama2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>duke.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1167,11 +1143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jinzheyu
-Nimama2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LIM 빠짐.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1196,25 +1167,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">University of Toronto 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC santa cruz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OSU/done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RICE university/done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">university of alberta/done
-</t>
+    <t>zheyujin,Nimam+D12a2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail
+Nimama2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E301 CSE Building, PO Box 116120, Gainesville, FL 32611; (352) 392-1200.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail address
+Nimama2012
+ubc no:81207136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1224,7 +1196,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zheyujin,Nimam+D12a2012</t>
+    <t>OSU/done
+전화 안받아..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu
+Nimama2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university of alberta/done
+절망적이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE university/done
+Dr Goldman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://apply.sgs.utoronto.ca/
+201208187329  Nimama2011
+https://gradapps.cs.toronto.edu/~mscac13/apply?loginKey=FY0YQNTQBFUHK7KAV5ZAMULFLNDVAGCI
+https://apply.sgs.utoronto.ca/home.aspx //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>거의 완성
+https://gradapps.cs.toronto.edu/~mscac13/apply?loginKey=HYUNRF00TGIS8EA3XOF4E0GNH9PO2E2D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Toronto 
+4월말, 5월초까지 시간은 있다. 그래서 교수 컨택!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2012-12-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+grad-info@cs.ubc.ca
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
+https://apply.embark.com/Grad/UCSantaCruz/83/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>여기 장학금정보 꼭 보기.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page9,10,
+얘네들 대학에서 배운 지식으로 어떻게 다른 사람 도울것인지 쓰래..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">statement of purpose,안썻으.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:
+https://www.cs.ubc.ca/students/grad/prospective/applying/documents
+신청 시슷템:
+http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr Goldman이라는 사람이 아직 누구한테도 거절을 안했다.. 교수컨텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.cs.toronto.edu/people/staff.htm
+Call Meany;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201208187329  Nimama2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS:
+http://compsci.rice.edu/academics.cfm?doc_id=4788
+gradappmail:gradapp@cs.rice.edu.
+https://csgradapps.rice.edu/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1232,114 +1351,6 @@
 docs:https://www.cs.ualberta.ca/prospective-students/graduate-studies/applications-admissions/required-documents
 https://gaps.cs.ualberta.ca/
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS:
-http://compsci.rice.edu/academics.cfm?doc_id=4788
-gradappmail:gradapp@cs.rice.edu.
-https://csgradapps.rice.edu/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmail
-Nimama2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E301 CSE Building, PO Box 116120, Gainesville, FL 32611; (352) 392-1200.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://apply.sgs.utoronto.ca/
-201208187329  Nimama2011
-https://gradapps.cs.toronto.edu/~mscac13/apply?loginKey=FY0YQNTQBFUHK7KAV5ZAMULFLNDVAGCI
-https://apply.sgs.utoronto.ca/home.aspx //</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>거의 완성
-https://gradapps.cs.toronto.edu/~mscac13/apply?loginKey=YAFBF0UMIFSNHRZ4Z5R77FRM325V9N07</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2012-12-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-grad-info@cs.ubc.ca
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro:
-https://www.cs.ubc.ca/students/grad/prospective/applying/documents
-신청 시슷템:
-http://www.grad.ubc.ca/prospective-students/application-admission/apply-online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">cs:http://ga.soe.ucsc.edu/admissions
-https://apply.embark.com/Grad/UCSantaCruz/83/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>여기 장학금정보 꼭 보기.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-http://graddiv.ucsc.edu/prospective-students/application-filing-requirements/online-app-instructions.html </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmail address
-Nimama2012
-ubc no:81207136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,7 +1361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,38 +1630,6 @@
     <font>
       <b/>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="6"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1699,15 +1678,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="9"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2035,7 +2057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2104,21 +2126,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2188,56 +2201,86 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2255,30 +2298,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2583,374 +2602,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="28.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="85" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="28.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="42">
+        <v>41289</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="65" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="45">
-        <v>41289</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="65" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="13" spans="1:10" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="55" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="58" t="s">
+      <c r="D13" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:10" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" s="27" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="D16" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="18"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="18"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="D66" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="D67" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="23" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26" t="s">
+    <row r="68" spans="1:10" s="23" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="63" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="55" t="s">
         <v>52</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>141</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>140</v>
       </c>
       <c r="F68" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="I68" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="30" customFormat="1" ht="9.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="29"/>
+    <row r="72" spans="1:10" s="27" customFormat="1" ht="9.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="D12" r:id="rId3"/>
-    <hyperlink ref="C13" r:id="rId4" display="http://www.bu.edu/cs/graduate/admissions/_x000a__x000a_apply:https://www.bu.edu/link/bin/uiscgi_graduate_application.pl/uismpl?ThisCollege=grs"/>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4" display="http://www.bu.edu/cs/graduate/admissions/_x000a__x000a_apply:https://www.bu.edu/link/bin/uiscgi_graduate_application.pl/uismpl?ThisCollege=grs"/>
+    <hyperlink ref="B2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3030,7 +3071,7 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3365,7 +3406,7 @@
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3405,171 +3446,171 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="38">
         <v>28</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="38">
         <v>26</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="38">
         <v>24</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="38">
         <v>27</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="38">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="69" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="69" t="s">
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="71"/>
+      <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="72" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="32" t="s">
+      <c r="G13" s="80"/>
+      <c r="H13" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="74"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="77" t="s">
+      <c r="J14" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="68" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="80"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="34" t="s">
+      <c r="A15" s="73"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="34" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="76"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="69"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37">
+      <c r="A16" s="34">
         <v>39897</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="35">
         <v>400</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="35">
         <v>146</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39">
+      <c r="D16" s="35"/>
+      <c r="E16" s="36">
         <v>28</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="35">
         <v>800</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="35">
         <v>166</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39">
+      <c r="H16" s="35"/>
+      <c r="I16" s="36">
         <v>94</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="35">
         <v>3</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="36">
         <v>11</v>
       </c>
     </row>
@@ -3670,7 +3711,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
@@ -3700,6 +3741,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3709,12 +3756,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
